--- a/academic-reading-notebook/new-words.xlsx
+++ b/academic-reading-notebook/new-words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiyang/myData/python-project/notebooks-641/academic-reading-notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBCAE96-961C-054F-88B9-C0E03570E5A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E091CA3-6853-E345-A770-9ADAF4FD875C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{C07A63B5-5344-AF4A-AFD6-2139CC657E22}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>[rɪˈtriːvl]</t>
   </si>
@@ -367,17 +367,32 @@
   </si>
   <si>
     <t xml:space="preserve"> [ɪnˈfizəbəl]</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索性数据分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thresholding</t>
+  </si>
+  <si>
+    <t>阈值转换法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -391,7 +406,15 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -732,13 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B4733E-376B-124B-AFDB-49936A421CEF}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
@@ -746,7 +769,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -757,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -768,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -790,7 +813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -801,7 +824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -812,7 +835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -823,7 +846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -834,7 +857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -845,7 +868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -856,7 +879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -867,7 +890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -875,7 +898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -886,7 +909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -897,7 +920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -908,7 +931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -919,7 +942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -930,7 +953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -941,7 +964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -952,7 +975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -963,7 +986,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -974,7 +997,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -982,7 +1005,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -990,7 +1013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -998,7 +1021,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -1009,7 +1032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -1020,7 +1043,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -1028,7 +1051,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
@@ -1039,7 +1062,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -1047,7 +1070,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
@@ -1058,7 +1081,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -1069,7 +1092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
@@ -1080,7 +1103,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -1088,7 +1111,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -1096,7 +1119,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -1107,7 +1130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
@@ -1118,7 +1141,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -1129,7 +1152,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>103</v>
       </c>
@@ -1137,7 +1160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
@@ -1148,7 +1171,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>109</v>
       </c>
@@ -1159,7 +1182,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -1170,7 +1193,24 @@
         <v>112</v>
       </c>
     </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/academic-reading-notebook/new-words.xlsx
+++ b/academic-reading-notebook/new-words.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiyang/myData/python-project/notebooks-641/academic-reading-notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E091CA3-6853-E345-A770-9ADAF4FD875C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D5E521-F4F0-804F-B7F1-35EBA34A151F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{C07A63B5-5344-AF4A-AFD6-2139CC657E22}"/>
+    <workbookView xWindow="5240" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{C07A63B5-5344-AF4A-AFD6-2139CC657E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="aforementioned">Sheet1!$C$72</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>[rɪˈtriːvl]</t>
   </si>
@@ -381,6 +384,616 @@
   </si>
   <si>
     <t>阈值转换法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t>大量的，广泛的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple criteria decision aiding (MCDA)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多准则决策辅助</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio selection</t>
+  </si>
+  <si>
+    <t>投资组合选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[pɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="AppleMyungjo"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">tˈfəʊliəʊ sɪˈlekʃn] </t>
+    </r>
+  </si>
+  <si>
+    <t>pricing contingent claims</t>
+  </si>
+  <si>
+    <t>定价或有债券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>econometric</t>
+  </si>
+  <si>
+    <t>计量经济学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinctive</t>
+  </si>
+  <si>
+    <t>独特的，有特色的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [dɪˈstɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="AppleMyungjo"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ktɪv] </t>
+    </r>
+  </si>
+  <si>
+    <t>bi-criterion</t>
+  </si>
+  <si>
+    <t>双准则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[kraɪˈtɪəriən]</t>
+  </si>
+  <si>
+    <t>risk-return</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险回报</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>capital budgeting decisions</t>
+  </si>
+  <si>
+    <t>资本预算决策</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [ˈkæpɪtl ˈbʌdʒɪtɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="AppleMyungjo"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dɪˈsɪʒənz] </t>
+    </r>
+  </si>
+  <si>
+    <t>globalization</t>
+  </si>
+  <si>
+    <t>全球化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulatory</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ɡ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>jələtəri]</t>
+    </r>
+  </si>
+  <si>
+    <t>监管的，管理的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>volatility</t>
+  </si>
+  <si>
+    <t>[ˌvɒləˈtɪlɪti]</t>
+  </si>
+  <si>
+    <t>不确定性，易变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX century</t>
+  </si>
+  <si>
+    <t>20世纪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggregate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合的，合计的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>novel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>as opposed to</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>而不是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>segment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusively</t>
+  </si>
+  <si>
+    <t>唯一的，专门的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>constituting</t>
+  </si>
+  <si>
+    <t>为…的成分，组成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>demographic</t>
+  </si>
+  <si>
+    <t>人口统计的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpretability</t>
+  </si>
+  <si>
+    <t>可解释性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>飞行员，试点的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈpaɪlət] </t>
+  </si>
+  <si>
+    <t>weighted-vote</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权投票</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [ˈfrɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="AppleMyungjo"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>djələnt]</t>
+    </r>
+  </si>
+  <si>
+    <t>欺诈的，诈骗的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">apply for </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adherence</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ədˈhɪərəns] </t>
+  </si>
+  <si>
+    <t>坚持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>propensity</t>
+  </si>
+  <si>
+    <t>倾向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [prəˈpensəti]</t>
+  </si>
+  <si>
+    <t>steeper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更陡峭的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aforementioned</t>
+  </si>
+  <si>
+    <t>上述的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>constitute</t>
+  </si>
+  <si>
+    <t>被看作，构成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rational</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>obligation</t>
+  </si>
+  <si>
+    <t>债务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˌɒblɪˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ɡ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">eɪʃn] </t>
+    </r>
+  </si>
+  <si>
+    <t>borrowers</t>
+  </si>
+  <si>
+    <t>借款人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditworthiness</t>
+  </si>
+  <si>
+    <t>信贷价值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>间隔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈɪntəvl]</t>
+  </si>
+  <si>
+    <t>successor</t>
+  </si>
+  <si>
+    <t>继承者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t>常见的，传统的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>complement</t>
+  </si>
+  <si>
+    <t>补足，补充</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>看似可信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>granting</t>
+  </si>
+  <si>
+    <t>同意，授予</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thereby</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从而</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alleviate</t>
+  </si>
+  <si>
+    <t>缓解，减轻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [əˈli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="AppleMyungjo"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vieɪt]</t>
+    </r>
+  </si>
+  <si>
+    <t>comparatively</t>
+  </si>
+  <si>
+    <t>[kəmˈpærətɪvli]</t>
+  </si>
+  <si>
+    <t>相对的，比较上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter-intuitive</t>
+  </si>
+  <si>
+    <t>反直觉的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>substantial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [səbˈstænʃl] </t>
+  </si>
+  <si>
+    <t>herein</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处，本文中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concretely</t>
+  </si>
+  <si>
+    <t>具体地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conservative</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [kənˈsɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="AppleMyungjo"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">vətɪv] </t>
+    </r>
+  </si>
+  <si>
+    <t>保守的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量的，价值巨大的，重要的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trial-and-error</t>
+  </si>
+  <si>
+    <t>尝试错误，反复试验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportional</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [prəˈpɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="AppleMyungjo"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ʃənl]</t>
+    </r>
+  </si>
+  <si>
+    <t>成比例的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>namely</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>也就是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +1001,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -416,6 +1029,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="AppleMyungjo"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -425,7 +1065,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -433,14 +1073,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,459 +1428,1333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B4733E-376B-124B-AFDB-49936A421CEF}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="31" customHeight="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="19">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="19">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="28">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="1" ph="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="19">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" ht="19">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" ht="19">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" ht="19">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" ht="19">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" ht="19">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" ht="19">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" ht="19">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" ht="19">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" ht="19">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" ht="19">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" ht="19">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" ht="19">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="19">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" ht="19">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" ht="19">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4" ht="36">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" ht="19">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="19">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="19">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" ht="19">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4" ht="19">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" ht="19">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4" ht="19">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4" ht="19">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4" ht="19">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:4" ht="19">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4" ht="19">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:4" ht="19">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:4" ht="19">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:4" ht="19">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:4" ht="19">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:4" ht="19">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:4" ht="19">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:4" ht="19">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:4" ht="19">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:4" ht="19">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:4" ht="38">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:4" ht="19">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="5" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="44" spans="1:4" ht="19">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="38">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" ht="39">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="19">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="19">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="19">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="19">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="19">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="19">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="19">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="19">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="19">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="20">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="19">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="19">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="36">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="19">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="19">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="20">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="19">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="20">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="19">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="6">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/academic-reading-notebook/new-words.xlsx
+++ b/academic-reading-notebook/new-words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiyang/myData/python-project/notebooks-641/academic-reading-notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D5E521-F4F0-804F-B7F1-35EBA34A151F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2768DD-863B-3440-91A8-313823B5B271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{C07A63B5-5344-AF4A-AFD6-2139CC657E22}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{C07A63B5-5344-AF4A-AFD6-2139CC657E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="422">
   <si>
     <t>[rɪˈtriːvl]</t>
   </si>
@@ -996,12 +996,769 @@
     <t>也就是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>proposal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[prəˈpəʊzl] </t>
+  </si>
+  <si>
+    <t>提议，建议</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>innovative</t>
+  </si>
+  <si>
+    <t>革新的，创新的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feasible</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [ˈfi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="AppleMyungjo"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zəbl]</t>
+    </r>
+  </si>
+  <si>
+    <t>可行的，行得通的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>macroeconomic</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˌmækrəʊˌi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="AppleMyungjo"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kəˈnɒmɪk]</t>
+    </r>
+  </si>
+  <si>
+    <t>宏观经济的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>affording</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付的起的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the one hand,...on the other hand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>即刻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dichotomous</t>
+  </si>
+  <si>
+    <t>分叉的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dai'kɔtəməs/</t>
+  </si>
+  <si>
+    <t>verdict</t>
+  </si>
+  <si>
+    <t>majority-voting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多数投票</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>overlaping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重叠的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aka.</t>
+  </si>
+  <si>
+    <t>/'e 'ke 'e/</t>
+  </si>
+  <si>
+    <t>also known as</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultant</t>
+  </si>
+  <si>
+    <t>由此导致的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exploits</t>
+  </si>
+  <si>
+    <t>利用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'eksplɔit/</t>
+  </si>
+  <si>
+    <t>ubiquitous</t>
+  </si>
+  <si>
+    <t>普遍存在的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterize</t>
+  </si>
+  <si>
+    <t>参数化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>satisfactory</t>
+  </si>
+  <si>
+    <t>/sætɪs'fækt(ə)rɪ/</t>
+  </si>
+  <si>
+    <r>
+      <t>满意的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>符合要求的</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-trivial</t>
+  </si>
+  <si>
+    <t>非平凡的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>refine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggregates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'ægrɪgət/</t>
+  </si>
+  <si>
+    <t>聚合的，总计，合计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>distill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analogously</t>
+  </si>
+  <si>
+    <t>类似的，相似的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ə'næləgəsli/</t>
+  </si>
+  <si>
+    <t>seamlessly</t>
+  </si>
+  <si>
+    <t>无缝的，无隙的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛弃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inferior</t>
+  </si>
+  <si>
+    <t>/ɪn'fɪərɪə/</t>
+  </si>
+  <si>
+    <t>差的，不如的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wherein</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中，在其中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>successive</t>
+  </si>
+  <si>
+    <t>连续的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键的，主要的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualitatively</t>
+  </si>
+  <si>
+    <t>定性地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'kwɔliteitivli/</t>
+  </si>
+  <si>
+    <t>overlook</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevalent</t>
+  </si>
+  <si>
+    <t>流行的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>news portal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻门户网站</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exaggeration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/iɡ,zædʒə'reiʃən/</t>
+  </si>
+  <si>
+    <t>夸张</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>labor-intensive</t>
+  </si>
+  <si>
+    <t>劳动密集型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor…into</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为因素代入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>opt for</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>integral</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'ɪntɪgr(ə)l/</t>
+  </si>
+  <si>
+    <t>in default of</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在缺少….</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prominent</t>
+  </si>
+  <si>
+    <t>突出的，重要的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>incorporates into</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripple</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'rɪp(ə)l/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波纹，涟漪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>overwhelming</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量的，令人不知所措的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruitful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有成效的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>intuitive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>直觉的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empirically</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验为主的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>namesake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>incur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招致，导致，遭受</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ɪn'kɜː/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/im'pirikli/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>partially</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ˈpɑ:ʃəlɪ/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则的，规律的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxonomy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abundant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prominent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'prɒmɪnənt/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要的，杰出的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inherit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spatial</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间上的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temporal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'temp(ə)r(ə)l/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'speɪʃ(ə)l/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>topology</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tə'pɒlədʒɪ/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>off-the-shelf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有的，现成的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinction</t>
+  </si>
+  <si>
+    <t>区别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deterministic</t>
+  </si>
+  <si>
+    <t>决定的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>equilibrium</t>
+  </si>
+  <si>
+    <t>平衡，均衡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow-up</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>problematic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有问题的，有困难的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prɒblə'mætɪk/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正，改善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>de facto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ˏdeɪ ˈfæktəu/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上的，事实上的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>on par with</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与….相当</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同类的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>homogeneous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ˌhɒmə(ʊ)'dʒiːnɪəs/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>避免，规避</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sɜːkəm'vent/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pivotal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'pɪvətl/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>singular</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>突出的，显著的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>redress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠正，调整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diminish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dɪ'mɪnɪʃ/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使降低，使减轻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>determinant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dɪ'tɜːmɪnənt/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyperplane</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超平面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsumed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将…归入，将…纳入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/səb'sjuːm/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>simultaneously</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saiməl'teiniəsli/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>devise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dɪ'vaɪz/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计，发明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ﬂaw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷，缺点，狂风</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>entail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使需要，使必须</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vicinity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>临近地区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1056,6 +1813,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1065,7 +1829,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1088,14 +1852,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1113,6 +1889,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1428,1336 +2225,6439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B4733E-376B-124B-AFDB-49936A421CEF}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="28" style="10" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31" customHeight="1">
-      <c r="A1" s="6"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" ph="1"/>
     </row>
     <row r="5" spans="1:6" ht="19">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="36">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="19">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="19">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="38">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="19">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="57">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="38">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="5"/>
+      <c r="D47" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="19">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="39">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="19">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="19">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="19">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="19">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="19">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="19">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="5" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="19">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="19">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="5" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="19">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="19">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="5" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="19">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="5" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="19">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="19">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="5" t="s">
+      <c r="C66" s="3"/>
+      <c r="D66" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="19">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="5" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="19">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="19">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="19">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="5" t="s">
+      <c r="C71" s="3"/>
+      <c r="D71" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="19">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="5" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="19">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="5" t="s">
+      <c r="C73" s="3"/>
+      <c r="D73" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="19">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="3"/>
+      <c r="D74" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="19">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="19">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="5" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="19">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="5" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="19">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="19">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="5" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="19">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="5" t="s">
+      <c r="C80" s="3"/>
+      <c r="D80" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="19">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="5" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="19">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="5" t="s">
+      <c r="C82" s="3"/>
+      <c r="D82" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="19">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="5" t="s">
+      <c r="C83" s="3"/>
+      <c r="D83" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="19">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="5" t="s">
+      <c r="C84" s="3"/>
+      <c r="D84" s="12" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="19">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="19">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="3"/>
+      <c r="D87" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="36">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="19">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="5" t="s">
+      <c r="C89" s="3"/>
+      <c r="D89" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="19">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="5" t="s">
+      <c r="C90" s="3"/>
+      <c r="D90" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="19">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="5" t="s">
+      <c r="C92" s="3"/>
+      <c r="D92" s="12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="19">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="5" t="s">
+      <c r="C94" s="3"/>
+      <c r="D94" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="6">
+    <row r="95" spans="1:4" ht="19">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="6">
+      <c r="B95" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="19">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="6">
+      <c r="B96" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="20">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="6">
+      <c r="B97" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="20">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="6">
+      <c r="B98" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="19">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="6">
+      <c r="B99" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="38">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="6">
+      <c r="B100" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" ht="19">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="6">
+      <c r="B101" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="19">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="6">
+      <c r="B102" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="19">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="6">
+      <c r="B103" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" ht="19">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="6">
+      <c r="B104" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="19">
+      <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="5"/>
+      <c r="B105" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="8">
+        <v>105</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="8">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="8">
+        <v>107</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="8">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="8">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="8">
+        <v>110</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="8">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="8">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="8">
+        <v>121</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="8">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="8">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="8">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="8">
+        <v>125</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="8">
+        <v>126</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="8">
+        <v>127</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="8">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="8">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="8">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="8">
+        <v>131</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="8">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="8">
+        <v>133</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="8">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="8">
+        <v>135</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="8">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="8">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="8">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="8">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="8">
+        <v>141</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="8">
+        <v>143</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="8">
+        <v>144</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="8">
+        <v>145</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="8">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="8">
+        <v>147</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="8">
+        <v>148</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="8">
+        <v>149</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="8">
+        <v>150</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="8">
+        <v>151</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="8">
+        <v>152</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="8">
+        <v>153</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="8">
+        <v>154</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="8">
+        <v>155</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="8">
+        <v>156</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="8">
+        <v>157</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="8">
+        <v>158</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="8">
+        <v>159</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="8">
+        <v>160</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="8">
+        <v>161</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="8">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="8">
+        <v>163</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="8">
+        <v>164</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="8">
+        <v>165</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="8">
+        <v>166</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="8">
+        <v>167</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="8">
+        <v>168</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="8">
+        <v>169</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="8">
+        <v>170</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="8">
+        <v>171</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="8">
+        <v>172</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="8">
+        <v>173</v>
+      </c>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="8">
+        <v>174</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="8">
+        <v>175</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="8">
+        <v>176</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="8">
+        <v>177</v>
+      </c>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="8">
+        <v>178</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="8">
+        <v>179</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="8">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="8">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="8">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="8">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="8">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="8">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="8">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="8">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="8">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="8">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="6"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="8">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="6"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="8">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="6"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="8">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="6"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="8">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="6"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="8">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="6"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="8">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="8">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="8">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="6"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="8">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="6"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="8">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="6"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="8">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="6"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="8">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="6"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="8">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="6"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="8">
+        <v>203</v>
+      </c>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="6"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="8">
+        <v>204</v>
+      </c>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="6"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="8">
+        <v>205</v>
+      </c>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="6"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="8">
+        <v>206</v>
+      </c>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="6"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="8">
+        <v>207</v>
+      </c>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="6"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="8">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="6"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="8">
+        <v>209</v>
+      </c>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="6"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="8">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="6"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="8">
+        <v>211</v>
+      </c>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="6"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="8">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="6"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="8">
+        <v>213</v>
+      </c>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="6"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="8">
+        <v>214</v>
+      </c>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="6"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="8">
+        <v>215</v>
+      </c>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="6"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="8">
+        <v>216</v>
+      </c>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="6"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="8">
+        <v>217</v>
+      </c>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="6"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="8">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="6"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="8">
+        <v>219</v>
+      </c>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="6"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="8">
+        <v>220</v>
+      </c>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="6"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="8">
+        <v>221</v>
+      </c>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="6"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="8">
+        <v>222</v>
+      </c>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="6"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="8">
+        <v>223</v>
+      </c>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="6"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="8">
+        <v>224</v>
+      </c>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="6"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="8">
+        <v>225</v>
+      </c>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="6"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="8">
+        <v>226</v>
+      </c>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="6"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="8">
+        <v>227</v>
+      </c>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="6"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="8">
+        <v>228</v>
+      </c>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="6"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="8">
+        <v>229</v>
+      </c>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="6"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="8">
+        <v>230</v>
+      </c>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="6"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="8">
+        <v>231</v>
+      </c>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="6"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="8">
+        <v>232</v>
+      </c>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="6"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="8">
+        <v>233</v>
+      </c>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="6"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="8">
+        <v>234</v>
+      </c>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="6"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="8">
+        <v>235</v>
+      </c>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="6"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="8">
+        <v>236</v>
+      </c>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="6"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="8">
+        <v>237</v>
+      </c>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="6"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="8">
+        <v>238</v>
+      </c>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="6"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="8">
+        <v>239</v>
+      </c>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="6"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="8">
+        <v>240</v>
+      </c>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="6"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="8">
+        <v>241</v>
+      </c>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="6"/>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="8">
+        <v>242</v>
+      </c>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="6"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="8">
+        <v>243</v>
+      </c>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="6"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="8">
+        <v>244</v>
+      </c>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="6"/>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="8">
+        <v>245</v>
+      </c>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="6"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="8">
+        <v>246</v>
+      </c>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="6"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="8">
+        <v>247</v>
+      </c>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="6"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="8">
+        <v>248</v>
+      </c>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="6"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="8">
+        <v>249</v>
+      </c>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="6"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="8">
+        <v>250</v>
+      </c>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="6"/>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="8">
+        <v>251</v>
+      </c>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="6"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="8">
+        <v>252</v>
+      </c>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="6"/>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="8">
+        <v>253</v>
+      </c>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="6"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="8">
+        <v>254</v>
+      </c>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="6"/>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="8">
+        <v>255</v>
+      </c>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="6"/>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="8">
+        <v>256</v>
+      </c>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="6"/>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="8">
+        <v>257</v>
+      </c>
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="6"/>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="8">
+        <v>258</v>
+      </c>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="6"/>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="8">
+        <v>259</v>
+      </c>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="6"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="8">
+        <v>260</v>
+      </c>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="6"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="8">
+        <v>261</v>
+      </c>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="6"/>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="8">
+        <v>262</v>
+      </c>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="6"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="8">
+        <v>263</v>
+      </c>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="6"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="8">
+        <v>264</v>
+      </c>
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="6"/>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="8">
+        <v>265</v>
+      </c>
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="6"/>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="8">
+        <v>266</v>
+      </c>
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="6"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="8">
+        <v>267</v>
+      </c>
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="6"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="8">
+        <v>268</v>
+      </c>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="6"/>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="8">
+        <v>269</v>
+      </c>
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="6"/>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="8">
+        <v>270</v>
+      </c>
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="6"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="8">
+        <v>271</v>
+      </c>
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="6"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="8">
+        <v>272</v>
+      </c>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="6"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="8">
+        <v>273</v>
+      </c>
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="6"/>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="8">
+        <v>274</v>
+      </c>
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="6"/>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="8">
+        <v>275</v>
+      </c>
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="6"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="8">
+        <v>276</v>
+      </c>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="6"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="8">
+        <v>277</v>
+      </c>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="6"/>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="8">
+        <v>278</v>
+      </c>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="6"/>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="8">
+        <v>279</v>
+      </c>
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="8">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="6"/>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="8">
+        <v>281</v>
+      </c>
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="6"/>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="8">
+        <v>282</v>
+      </c>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="8">
+        <v>283</v>
+      </c>
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="6"/>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="8">
+        <v>284</v>
+      </c>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="6"/>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="8">
+        <v>285</v>
+      </c>
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="6"/>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="8">
+        <v>286</v>
+      </c>
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="6"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="8">
+        <v>287</v>
+      </c>
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="6"/>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="8">
+        <v>288</v>
+      </c>
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="6"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="8">
+        <v>289</v>
+      </c>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="6"/>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="8">
+        <v>290</v>
+      </c>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="6"/>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="8">
+        <v>291</v>
+      </c>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="6"/>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="8">
+        <v>292</v>
+      </c>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="6"/>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="8">
+        <v>293</v>
+      </c>
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="6"/>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="8">
+        <v>294</v>
+      </c>
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="6"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="8">
+        <v>295</v>
+      </c>
+      <c r="B296" s="5"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="6"/>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="8">
+        <v>296</v>
+      </c>
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="6"/>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="8">
+        <v>297</v>
+      </c>
+      <c r="B298" s="5"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="6"/>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="8">
+        <v>298</v>
+      </c>
+      <c r="B299" s="5"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="6"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="8">
+        <v>299</v>
+      </c>
+      <c r="B300" s="5"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="6"/>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="8">
+        <v>300</v>
+      </c>
+      <c r="B301" s="5"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="6"/>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="8">
+        <v>301</v>
+      </c>
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="6"/>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="8">
+        <v>302</v>
+      </c>
+      <c r="B303" s="5"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="6"/>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="8">
+        <v>303</v>
+      </c>
+      <c r="B304" s="5"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="6"/>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="8">
+        <v>304</v>
+      </c>
+      <c r="B305" s="5"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="6"/>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="8">
+        <v>305</v>
+      </c>
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="6"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="8">
+        <v>306</v>
+      </c>
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="6"/>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="8">
+        <v>307</v>
+      </c>
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="6"/>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="8">
+        <v>308</v>
+      </c>
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="6"/>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="8">
+        <v>309</v>
+      </c>
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="6"/>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="8">
+        <v>310</v>
+      </c>
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="6"/>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="8">
+        <v>311</v>
+      </c>
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="6"/>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="8">
+        <v>312</v>
+      </c>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="6"/>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="8">
+        <v>313</v>
+      </c>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="6"/>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="8">
+        <v>314</v>
+      </c>
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="6"/>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="8">
+        <v>315</v>
+      </c>
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="6"/>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="8">
+        <v>316</v>
+      </c>
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="6"/>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="8">
+        <v>317</v>
+      </c>
+      <c r="B318" s="5"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="6"/>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="8">
+        <v>318</v>
+      </c>
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="6"/>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="8">
+        <v>319</v>
+      </c>
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="6"/>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="8">
+        <v>320</v>
+      </c>
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="6"/>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="8">
+        <v>321</v>
+      </c>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="6"/>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="8">
+        <v>322</v>
+      </c>
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="6"/>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="8">
+        <v>323</v>
+      </c>
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="6"/>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="8">
+        <v>324</v>
+      </c>
+      <c r="B325" s="5"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="6"/>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="8">
+        <v>325</v>
+      </c>
+      <c r="B326" s="5"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="6"/>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="8">
+        <v>326</v>
+      </c>
+      <c r="B327" s="5"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="6"/>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="8">
+        <v>327</v>
+      </c>
+      <c r="B328" s="5"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="6"/>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="8">
+        <v>328</v>
+      </c>
+      <c r="B329" s="5"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="6"/>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="8">
+        <v>329</v>
+      </c>
+      <c r="B330" s="5"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="6"/>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="8">
+        <v>330</v>
+      </c>
+      <c r="B331" s="5"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="6"/>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="8">
+        <v>331</v>
+      </c>
+      <c r="B332" s="5"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="6"/>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="8">
+        <v>332</v>
+      </c>
+      <c r="B333" s="5"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="6"/>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="8">
+        <v>333</v>
+      </c>
+      <c r="B334" s="5"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="6"/>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="8">
+        <v>334</v>
+      </c>
+      <c r="B335" s="5"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="6"/>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="8">
+        <v>335</v>
+      </c>
+      <c r="B336" s="5"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="6"/>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="8">
+        <v>336</v>
+      </c>
+      <c r="B337" s="5"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="6"/>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="8">
+        <v>337</v>
+      </c>
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="6"/>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="8">
+        <v>338</v>
+      </c>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="6"/>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="8">
+        <v>339</v>
+      </c>
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="6"/>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="8">
+        <v>340</v>
+      </c>
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="6"/>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="8">
+        <v>341</v>
+      </c>
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="6"/>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="8">
+        <v>342</v>
+      </c>
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="6"/>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="8">
+        <v>343</v>
+      </c>
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="6"/>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="8">
+        <v>344</v>
+      </c>
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="6"/>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="8">
+        <v>345</v>
+      </c>
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="6"/>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="8">
+        <v>346</v>
+      </c>
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="6"/>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="8">
+        <v>347</v>
+      </c>
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="6"/>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="8">
+        <v>348</v>
+      </c>
+      <c r="B349" s="5"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="6"/>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="8">
+        <v>349</v>
+      </c>
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="6"/>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="8">
+        <v>350</v>
+      </c>
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="6"/>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="8">
+        <v>351</v>
+      </c>
+      <c r="B352" s="5"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="6"/>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="8">
+        <v>352</v>
+      </c>
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="6"/>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="8">
+        <v>353</v>
+      </c>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="6"/>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="8">
+        <v>354</v>
+      </c>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="6"/>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="8">
+        <v>355</v>
+      </c>
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
+      <c r="D356" s="6"/>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="8">
+        <v>356</v>
+      </c>
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="6"/>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="8">
+        <v>357</v>
+      </c>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="6"/>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="8">
+        <v>358</v>
+      </c>
+      <c r="B359" s="5"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="6"/>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="8">
+        <v>359</v>
+      </c>
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="6"/>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="8">
+        <v>360</v>
+      </c>
+      <c r="B361" s="5"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="6"/>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="8">
+        <v>361</v>
+      </c>
+      <c r="B362" s="5"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="6"/>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="8">
+        <v>362</v>
+      </c>
+      <c r="B363" s="5"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="6"/>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="8">
+        <v>363</v>
+      </c>
+      <c r="B364" s="5"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="6"/>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="8">
+        <v>364</v>
+      </c>
+      <c r="B365" s="5"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="6"/>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="8">
+        <v>365</v>
+      </c>
+      <c r="B366" s="5"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="6"/>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="8">
+        <v>366</v>
+      </c>
+      <c r="B367" s="5"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="6"/>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="8">
+        <v>367</v>
+      </c>
+      <c r="B368" s="5"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="6"/>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="8">
+        <v>368</v>
+      </c>
+      <c r="B369" s="5"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="6"/>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="8">
+        <v>369</v>
+      </c>
+      <c r="B370" s="5"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="6"/>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="8">
+        <v>370</v>
+      </c>
+      <c r="B371" s="5"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="6"/>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="8">
+        <v>371</v>
+      </c>
+      <c r="B372" s="5"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="6"/>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="8">
+        <v>372</v>
+      </c>
+      <c r="B373" s="5"/>
+      <c r="C373" s="5"/>
+      <c r="D373" s="6"/>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="8">
+        <v>373</v>
+      </c>
+      <c r="B374" s="5"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="6"/>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="8">
+        <v>374</v>
+      </c>
+      <c r="B375" s="5"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="6"/>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="8">
+        <v>375</v>
+      </c>
+      <c r="B376" s="5"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="6"/>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="8">
+        <v>376</v>
+      </c>
+      <c r="B377" s="5"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="6"/>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="8">
+        <v>377</v>
+      </c>
+      <c r="B378" s="5"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="6"/>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="8">
+        <v>378</v>
+      </c>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="6"/>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="8">
+        <v>379</v>
+      </c>
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="6"/>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="8">
+        <v>380</v>
+      </c>
+      <c r="B381" s="5"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="6"/>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="8">
+        <v>381</v>
+      </c>
+      <c r="B382" s="5"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="6"/>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="8">
+        <v>382</v>
+      </c>
+      <c r="B383" s="5"/>
+      <c r="C383" s="5"/>
+      <c r="D383" s="6"/>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="8">
+        <v>383</v>
+      </c>
+      <c r="B384" s="5"/>
+      <c r="C384" s="5"/>
+      <c r="D384" s="6"/>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="8">
+        <v>384</v>
+      </c>
+      <c r="B385" s="5"/>
+      <c r="C385" s="5"/>
+      <c r="D385" s="6"/>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="8">
+        <v>385</v>
+      </c>
+      <c r="B386" s="5"/>
+      <c r="C386" s="5"/>
+      <c r="D386" s="6"/>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="8">
+        <v>386</v>
+      </c>
+      <c r="B387" s="5"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="6"/>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="8">
+        <v>387</v>
+      </c>
+      <c r="B388" s="5"/>
+      <c r="C388" s="5"/>
+      <c r="D388" s="6"/>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="8">
+        <v>388</v>
+      </c>
+      <c r="B389" s="5"/>
+      <c r="C389" s="5"/>
+      <c r="D389" s="6"/>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="8">
+        <v>389</v>
+      </c>
+      <c r="B390" s="5"/>
+      <c r="C390" s="5"/>
+      <c r="D390" s="6"/>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="8">
+        <v>390</v>
+      </c>
+      <c r="B391" s="5"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="6"/>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="8">
+        <v>391</v>
+      </c>
+      <c r="B392" s="5"/>
+      <c r="C392" s="5"/>
+      <c r="D392" s="6"/>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="8">
+        <v>392</v>
+      </c>
+      <c r="B393" s="5"/>
+      <c r="C393" s="5"/>
+      <c r="D393" s="6"/>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="8">
+        <v>393</v>
+      </c>
+      <c r="B394" s="5"/>
+      <c r="C394" s="5"/>
+      <c r="D394" s="6"/>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="8">
+        <v>394</v>
+      </c>
+      <c r="B395" s="5"/>
+      <c r="C395" s="5"/>
+      <c r="D395" s="6"/>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="8">
+        <v>395</v>
+      </c>
+      <c r="B396" s="5"/>
+      <c r="C396" s="5"/>
+      <c r="D396" s="6"/>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="8">
+        <v>396</v>
+      </c>
+      <c r="B397" s="5"/>
+      <c r="C397" s="5"/>
+      <c r="D397" s="6"/>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="8">
+        <v>397</v>
+      </c>
+      <c r="B398" s="5"/>
+      <c r="C398" s="5"/>
+      <c r="D398" s="6"/>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="8">
+        <v>398</v>
+      </c>
+      <c r="B399" s="5"/>
+      <c r="C399" s="5"/>
+      <c r="D399" s="6"/>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="8">
+        <v>399</v>
+      </c>
+      <c r="B400" s="5"/>
+      <c r="C400" s="5"/>
+      <c r="D400" s="6"/>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="8">
+        <v>400</v>
+      </c>
+      <c r="B401" s="5"/>
+      <c r="C401" s="5"/>
+      <c r="D401" s="6"/>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="8">
+        <v>401</v>
+      </c>
+      <c r="B402" s="5"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="6"/>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="8">
+        <v>402</v>
+      </c>
+      <c r="B403" s="5"/>
+      <c r="C403" s="5"/>
+      <c r="D403" s="6"/>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="8">
+        <v>403</v>
+      </c>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="6"/>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="8">
+        <v>404</v>
+      </c>
+      <c r="B405" s="5"/>
+      <c r="C405" s="5"/>
+      <c r="D405" s="6"/>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="8">
+        <v>405</v>
+      </c>
+      <c r="B406" s="5"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="6"/>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="8">
+        <v>406</v>
+      </c>
+      <c r="B407" s="5"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="6"/>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="8">
+        <v>407</v>
+      </c>
+      <c r="B408" s="5"/>
+      <c r="C408" s="5"/>
+      <c r="D408" s="6"/>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="8">
+        <v>408</v>
+      </c>
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="6"/>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="8">
+        <v>409</v>
+      </c>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="6"/>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="8">
+        <v>410</v>
+      </c>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="6"/>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="8">
+        <v>411</v>
+      </c>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="6"/>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="8">
+        <v>412</v>
+      </c>
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="6"/>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="8">
+        <v>413</v>
+      </c>
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="6"/>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="8">
+        <v>414</v>
+      </c>
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="6"/>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="8">
+        <v>415</v>
+      </c>
+      <c r="B416" s="5"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="6"/>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="8">
+        <v>416</v>
+      </c>
+      <c r="B417" s="5"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="6"/>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="8">
+        <v>417</v>
+      </c>
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="6"/>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="8">
+        <v>418</v>
+      </c>
+      <c r="B419" s="5"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="6"/>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="8">
+        <v>419</v>
+      </c>
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="6"/>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="8">
+        <v>420</v>
+      </c>
+      <c r="B421" s="5"/>
+      <c r="C421" s="5"/>
+      <c r="D421" s="6"/>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="8">
+        <v>421</v>
+      </c>
+      <c r="B422" s="5"/>
+      <c r="C422" s="5"/>
+      <c r="D422" s="6"/>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="8">
+        <v>422</v>
+      </c>
+      <c r="B423" s="5"/>
+      <c r="C423" s="5"/>
+      <c r="D423" s="6"/>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="8">
+        <v>423</v>
+      </c>
+      <c r="B424" s="5"/>
+      <c r="C424" s="5"/>
+      <c r="D424" s="6"/>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="8">
+        <v>424</v>
+      </c>
+      <c r="B425" s="5"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="6"/>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="8">
+        <v>425</v>
+      </c>
+      <c r="B426" s="5"/>
+      <c r="C426" s="5"/>
+      <c r="D426" s="6"/>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="8">
+        <v>426</v>
+      </c>
+      <c r="B427" s="5"/>
+      <c r="C427" s="5"/>
+      <c r="D427" s="6"/>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="8">
+        <v>427</v>
+      </c>
+      <c r="B428" s="5"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="6"/>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="8">
+        <v>428</v>
+      </c>
+      <c r="B429" s="5"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="6"/>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="8">
+        <v>429</v>
+      </c>
+      <c r="B430" s="5"/>
+      <c r="C430" s="5"/>
+      <c r="D430" s="6"/>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="8">
+        <v>430</v>
+      </c>
+      <c r="B431" s="5"/>
+      <c r="C431" s="5"/>
+      <c r="D431" s="6"/>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="8">
+        <v>431</v>
+      </c>
+      <c r="B432" s="5"/>
+      <c r="C432" s="5"/>
+      <c r="D432" s="6"/>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="8">
+        <v>432</v>
+      </c>
+      <c r="B433" s="5"/>
+      <c r="C433" s="5"/>
+      <c r="D433" s="6"/>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="8">
+        <v>433</v>
+      </c>
+      <c r="B434" s="5"/>
+      <c r="C434" s="5"/>
+      <c r="D434" s="6"/>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="8">
+        <v>434</v>
+      </c>
+      <c r="B435" s="5"/>
+      <c r="C435" s="5"/>
+      <c r="D435" s="6"/>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="8">
+        <v>435</v>
+      </c>
+      <c r="B436" s="5"/>
+      <c r="C436" s="5"/>
+      <c r="D436" s="6"/>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="8">
+        <v>436</v>
+      </c>
+      <c r="B437" s="5"/>
+      <c r="C437" s="5"/>
+      <c r="D437" s="6"/>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="8">
+        <v>437</v>
+      </c>
+      <c r="B438" s="5"/>
+      <c r="C438" s="5"/>
+      <c r="D438" s="6"/>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="8">
+        <v>438</v>
+      </c>
+      <c r="B439" s="5"/>
+      <c r="C439" s="5"/>
+      <c r="D439" s="6"/>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="8">
+        <v>439</v>
+      </c>
+      <c r="B440" s="5"/>
+      <c r="C440" s="5"/>
+      <c r="D440" s="6"/>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="8">
+        <v>440</v>
+      </c>
+      <c r="B441" s="5"/>
+      <c r="C441" s="5"/>
+      <c r="D441" s="6"/>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="8">
+        <v>441</v>
+      </c>
+      <c r="B442" s="5"/>
+      <c r="C442" s="5"/>
+      <c r="D442" s="6"/>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="8">
+        <v>442</v>
+      </c>
+      <c r="B443" s="5"/>
+      <c r="C443" s="5"/>
+      <c r="D443" s="6"/>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="8">
+        <v>443</v>
+      </c>
+      <c r="B444" s="5"/>
+      <c r="C444" s="5"/>
+      <c r="D444" s="6"/>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="8">
+        <v>444</v>
+      </c>
+      <c r="B445" s="5"/>
+      <c r="C445" s="5"/>
+      <c r="D445" s="6"/>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="8">
+        <v>445</v>
+      </c>
+      <c r="B446" s="5"/>
+      <c r="C446" s="5"/>
+      <c r="D446" s="6"/>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="8">
+        <v>446</v>
+      </c>
+      <c r="B447" s="5"/>
+      <c r="C447" s="5"/>
+      <c r="D447" s="6"/>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="8">
+        <v>447</v>
+      </c>
+      <c r="B448" s="5"/>
+      <c r="C448" s="5"/>
+      <c r="D448" s="6"/>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="8">
+        <v>448</v>
+      </c>
+      <c r="B449" s="5"/>
+      <c r="C449" s="5"/>
+      <c r="D449" s="6"/>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="8">
+        <v>449</v>
+      </c>
+      <c r="B450" s="5"/>
+      <c r="C450" s="5"/>
+      <c r="D450" s="6"/>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="8">
+        <v>450</v>
+      </c>
+      <c r="B451" s="5"/>
+      <c r="C451" s="5"/>
+      <c r="D451" s="6"/>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="8">
+        <v>451</v>
+      </c>
+      <c r="B452" s="5"/>
+      <c r="C452" s="5"/>
+      <c r="D452" s="6"/>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="8">
+        <v>452</v>
+      </c>
+      <c r="B453" s="5"/>
+      <c r="C453" s="5"/>
+      <c r="D453" s="6"/>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="8">
+        <v>453</v>
+      </c>
+      <c r="B454" s="5"/>
+      <c r="C454" s="5"/>
+      <c r="D454" s="6"/>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="8">
+        <v>454</v>
+      </c>
+      <c r="B455" s="5"/>
+      <c r="C455" s="5"/>
+      <c r="D455" s="6"/>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="8">
+        <v>455</v>
+      </c>
+      <c r="B456" s="5"/>
+      <c r="C456" s="5"/>
+      <c r="D456" s="6"/>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="8">
+        <v>456</v>
+      </c>
+      <c r="B457" s="5"/>
+      <c r="C457" s="5"/>
+      <c r="D457" s="6"/>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="8">
+        <v>457</v>
+      </c>
+      <c r="B458" s="5"/>
+      <c r="C458" s="5"/>
+      <c r="D458" s="6"/>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="8">
+        <v>458</v>
+      </c>
+      <c r="B459" s="5"/>
+      <c r="C459" s="5"/>
+      <c r="D459" s="6"/>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="8">
+        <v>459</v>
+      </c>
+      <c r="B460" s="5"/>
+      <c r="C460" s="5"/>
+      <c r="D460" s="6"/>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="8">
+        <v>460</v>
+      </c>
+      <c r="B461" s="5"/>
+      <c r="C461" s="5"/>
+      <c r="D461" s="6"/>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="8">
+        <v>461</v>
+      </c>
+      <c r="B462" s="5"/>
+      <c r="C462" s="5"/>
+      <c r="D462" s="6"/>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="8">
+        <v>462</v>
+      </c>
+      <c r="B463" s="5"/>
+      <c r="C463" s="5"/>
+      <c r="D463" s="6"/>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="8">
+        <v>463</v>
+      </c>
+      <c r="B464" s="5"/>
+      <c r="C464" s="5"/>
+      <c r="D464" s="6"/>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="8">
+        <v>464</v>
+      </c>
+      <c r="B465" s="5"/>
+      <c r="C465" s="5"/>
+      <c r="D465" s="6"/>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="8">
+        <v>465</v>
+      </c>
+      <c r="B466" s="5"/>
+      <c r="C466" s="5"/>
+      <c r="D466" s="6"/>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="8">
+        <v>466</v>
+      </c>
+      <c r="B467" s="5"/>
+      <c r="C467" s="5"/>
+      <c r="D467" s="6"/>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="8">
+        <v>467</v>
+      </c>
+      <c r="B468" s="5"/>
+      <c r="C468" s="5"/>
+      <c r="D468" s="6"/>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="8">
+        <v>468</v>
+      </c>
+      <c r="B469" s="5"/>
+      <c r="C469" s="5"/>
+      <c r="D469" s="6"/>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="8">
+        <v>469</v>
+      </c>
+      <c r="B470" s="5"/>
+      <c r="C470" s="5"/>
+      <c r="D470" s="6"/>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="8">
+        <v>470</v>
+      </c>
+      <c r="B471" s="5"/>
+      <c r="C471" s="5"/>
+      <c r="D471" s="6"/>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="8">
+        <v>471</v>
+      </c>
+      <c r="B472" s="5"/>
+      <c r="C472" s="5"/>
+      <c r="D472" s="6"/>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="8">
+        <v>472</v>
+      </c>
+      <c r="B473" s="5"/>
+      <c r="C473" s="5"/>
+      <c r="D473" s="6"/>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="8">
+        <v>473</v>
+      </c>
+      <c r="B474" s="5"/>
+      <c r="C474" s="5"/>
+      <c r="D474" s="6"/>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="8">
+        <v>474</v>
+      </c>
+      <c r="B475" s="5"/>
+      <c r="C475" s="5"/>
+      <c r="D475" s="6"/>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="8">
+        <v>475</v>
+      </c>
+      <c r="B476" s="5"/>
+      <c r="C476" s="5"/>
+      <c r="D476" s="6"/>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="8">
+        <v>476</v>
+      </c>
+      <c r="B477" s="5"/>
+      <c r="C477" s="5"/>
+      <c r="D477" s="6"/>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="8">
+        <v>477</v>
+      </c>
+      <c r="B478" s="5"/>
+      <c r="C478" s="5"/>
+      <c r="D478" s="6"/>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="8">
+        <v>478</v>
+      </c>
+      <c r="B479" s="5"/>
+      <c r="C479" s="5"/>
+      <c r="D479" s="6"/>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="8">
+        <v>479</v>
+      </c>
+      <c r="B480" s="5"/>
+      <c r="C480" s="5"/>
+      <c r="D480" s="6"/>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="8">
+        <v>480</v>
+      </c>
+      <c r="B481" s="5"/>
+      <c r="C481" s="5"/>
+      <c r="D481" s="6"/>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="8">
+        <v>481</v>
+      </c>
+      <c r="B482" s="5"/>
+      <c r="C482" s="5"/>
+      <c r="D482" s="6"/>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="8">
+        <v>482</v>
+      </c>
+      <c r="B483" s="5"/>
+      <c r="C483" s="5"/>
+      <c r="D483" s="6"/>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="8">
+        <v>483</v>
+      </c>
+      <c r="B484" s="5"/>
+      <c r="C484" s="5"/>
+      <c r="D484" s="6"/>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="8">
+        <v>484</v>
+      </c>
+      <c r="B485" s="5"/>
+      <c r="C485" s="5"/>
+      <c r="D485" s="6"/>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="8">
+        <v>485</v>
+      </c>
+      <c r="B486" s="5"/>
+      <c r="C486" s="5"/>
+      <c r="D486" s="6"/>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="8">
+        <v>486</v>
+      </c>
+      <c r="B487" s="5"/>
+      <c r="C487" s="5"/>
+      <c r="D487" s="6"/>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="8">
+        <v>487</v>
+      </c>
+      <c r="B488" s="5"/>
+      <c r="C488" s="5"/>
+      <c r="D488" s="6"/>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="8">
+        <v>488</v>
+      </c>
+      <c r="B489" s="5"/>
+      <c r="C489" s="5"/>
+      <c r="D489" s="6"/>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="8">
+        <v>489</v>
+      </c>
+      <c r="B490" s="5"/>
+      <c r="C490" s="5"/>
+      <c r="D490" s="6"/>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="8">
+        <v>490</v>
+      </c>
+      <c r="B491" s="5"/>
+      <c r="C491" s="5"/>
+      <c r="D491" s="6"/>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="8">
+        <v>491</v>
+      </c>
+      <c r="B492" s="5"/>
+      <c r="C492" s="5"/>
+      <c r="D492" s="6"/>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="8">
+        <v>492</v>
+      </c>
+      <c r="B493" s="5"/>
+      <c r="C493" s="5"/>
+      <c r="D493" s="6"/>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="8">
+        <v>493</v>
+      </c>
+      <c r="B494" s="5"/>
+      <c r="C494" s="5"/>
+      <c r="D494" s="6"/>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="8">
+        <v>494</v>
+      </c>
+      <c r="B495" s="5"/>
+      <c r="C495" s="5"/>
+      <c r="D495" s="6"/>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="8">
+        <v>495</v>
+      </c>
+      <c r="B496" s="5"/>
+      <c r="C496" s="5"/>
+      <c r="D496" s="6"/>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="8">
+        <v>496</v>
+      </c>
+      <c r="B497" s="5"/>
+      <c r="C497" s="5"/>
+      <c r="D497" s="6"/>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="8">
+        <v>497</v>
+      </c>
+      <c r="B498" s="5"/>
+      <c r="C498" s="5"/>
+      <c r="D498" s="6"/>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="8">
+        <v>498</v>
+      </c>
+      <c r="B499" s="5"/>
+      <c r="C499" s="5"/>
+      <c r="D499" s="6"/>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="8">
+        <v>499</v>
+      </c>
+      <c r="B500" s="5"/>
+      <c r="C500" s="5"/>
+      <c r="D500" s="6"/>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="8">
+        <v>500</v>
+      </c>
+      <c r="B501" s="5"/>
+      <c r="C501" s="5"/>
+      <c r="D501" s="6"/>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="8">
+        <v>501</v>
+      </c>
+      <c r="B502" s="5"/>
+      <c r="C502" s="5"/>
+      <c r="D502" s="6"/>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="8">
+        <v>502</v>
+      </c>
+      <c r="B503" s="5"/>
+      <c r="C503" s="5"/>
+      <c r="D503" s="6"/>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="8">
+        <v>503</v>
+      </c>
+      <c r="B504" s="5"/>
+      <c r="C504" s="5"/>
+      <c r="D504" s="6"/>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="8">
+        <v>504</v>
+      </c>
+      <c r="B505" s="5"/>
+      <c r="C505" s="5"/>
+      <c r="D505" s="6"/>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="8">
+        <v>505</v>
+      </c>
+      <c r="B506" s="5"/>
+      <c r="C506" s="5"/>
+      <c r="D506" s="6"/>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="8">
+        <v>506</v>
+      </c>
+      <c r="B507" s="5"/>
+      <c r="C507" s="5"/>
+      <c r="D507" s="6"/>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="8">
+        <v>507</v>
+      </c>
+      <c r="B508" s="5"/>
+      <c r="C508" s="5"/>
+      <c r="D508" s="6"/>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="8">
+        <v>508</v>
+      </c>
+      <c r="B509" s="5"/>
+      <c r="C509" s="5"/>
+      <c r="D509" s="6"/>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="8">
+        <v>509</v>
+      </c>
+      <c r="B510" s="5"/>
+      <c r="C510" s="5"/>
+      <c r="D510" s="6"/>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="8">
+        <v>510</v>
+      </c>
+      <c r="B511" s="5"/>
+      <c r="C511" s="5"/>
+      <c r="D511" s="6"/>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="8">
+        <v>511</v>
+      </c>
+      <c r="B512" s="5"/>
+      <c r="C512" s="5"/>
+      <c r="D512" s="6"/>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="8">
+        <v>512</v>
+      </c>
+      <c r="B513" s="5"/>
+      <c r="C513" s="5"/>
+      <c r="D513" s="6"/>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="8">
+        <v>513</v>
+      </c>
+      <c r="B514" s="5"/>
+      <c r="C514" s="5"/>
+      <c r="D514" s="6"/>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="8">
+        <v>514</v>
+      </c>
+      <c r="B515" s="5"/>
+      <c r="C515" s="5"/>
+      <c r="D515" s="6"/>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="8">
+        <v>515</v>
+      </c>
+      <c r="B516" s="5"/>
+      <c r="C516" s="5"/>
+      <c r="D516" s="6"/>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="8">
+        <v>516</v>
+      </c>
+      <c r="B517" s="5"/>
+      <c r="C517" s="5"/>
+      <c r="D517" s="6"/>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="8">
+        <v>517</v>
+      </c>
+      <c r="B518" s="5"/>
+      <c r="C518" s="5"/>
+      <c r="D518" s="6"/>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="8">
+        <v>518</v>
+      </c>
+      <c r="B519" s="5"/>
+      <c r="C519" s="5"/>
+      <c r="D519" s="6"/>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="8">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5"/>
+      <c r="C520" s="5"/>
+      <c r="D520" s="6"/>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="8">
+        <v>520</v>
+      </c>
+      <c r="B521" s="5"/>
+      <c r="C521" s="5"/>
+      <c r="D521" s="6"/>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="8">
+        <v>521</v>
+      </c>
+      <c r="B522" s="5"/>
+      <c r="C522" s="5"/>
+      <c r="D522" s="6"/>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="8">
+        <v>522</v>
+      </c>
+      <c r="B523" s="5"/>
+      <c r="C523" s="5"/>
+      <c r="D523" s="6"/>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="8">
+        <v>523</v>
+      </c>
+      <c r="B524" s="5"/>
+      <c r="C524" s="5"/>
+      <c r="D524" s="6"/>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="8">
+        <v>524</v>
+      </c>
+      <c r="B525" s="5"/>
+      <c r="C525" s="5"/>
+      <c r="D525" s="6"/>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="8">
+        <v>525</v>
+      </c>
+      <c r="B526" s="5"/>
+      <c r="C526" s="5"/>
+      <c r="D526" s="6"/>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="8">
+        <v>526</v>
+      </c>
+      <c r="B527" s="5"/>
+      <c r="C527" s="5"/>
+      <c r="D527" s="6"/>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="8">
+        <v>527</v>
+      </c>
+      <c r="B528" s="5"/>
+      <c r="C528" s="5"/>
+      <c r="D528" s="6"/>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="8">
+        <v>528</v>
+      </c>
+      <c r="B529" s="5"/>
+      <c r="C529" s="5"/>
+      <c r="D529" s="6"/>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="8">
+        <v>529</v>
+      </c>
+      <c r="B530" s="5"/>
+      <c r="C530" s="5"/>
+      <c r="D530" s="6"/>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="8">
+        <v>530</v>
+      </c>
+      <c r="B531" s="5"/>
+      <c r="C531" s="5"/>
+      <c r="D531" s="6"/>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="8">
+        <v>531</v>
+      </c>
+      <c r="B532" s="5"/>
+      <c r="C532" s="5"/>
+      <c r="D532" s="6"/>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="8">
+        <v>532</v>
+      </c>
+      <c r="B533" s="5"/>
+      <c r="C533" s="5"/>
+      <c r="D533" s="6"/>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="8">
+        <v>533</v>
+      </c>
+      <c r="B534" s="5"/>
+      <c r="C534" s="5"/>
+      <c r="D534" s="6"/>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="8">
+        <v>534</v>
+      </c>
+      <c r="B535" s="5"/>
+      <c r="C535" s="5"/>
+      <c r="D535" s="6"/>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="8">
+        <v>535</v>
+      </c>
+      <c r="B536" s="5"/>
+      <c r="C536" s="5"/>
+      <c r="D536" s="6"/>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="8">
+        <v>536</v>
+      </c>
+      <c r="B537" s="5"/>
+      <c r="C537" s="5"/>
+      <c r="D537" s="6"/>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="8">
+        <v>537</v>
+      </c>
+      <c r="B538" s="5"/>
+      <c r="C538" s="5"/>
+      <c r="D538" s="6"/>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="8">
+        <v>538</v>
+      </c>
+      <c r="B539" s="5"/>
+      <c r="C539" s="5"/>
+      <c r="D539" s="6"/>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="8">
+        <v>539</v>
+      </c>
+      <c r="B540" s="5"/>
+      <c r="C540" s="5"/>
+      <c r="D540" s="6"/>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="8">
+        <v>540</v>
+      </c>
+      <c r="B541" s="5"/>
+      <c r="C541" s="5"/>
+      <c r="D541" s="6"/>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="8">
+        <v>541</v>
+      </c>
+      <c r="B542" s="5"/>
+      <c r="C542" s="5"/>
+      <c r="D542" s="6"/>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="8">
+        <v>542</v>
+      </c>
+      <c r="B543" s="5"/>
+      <c r="C543" s="5"/>
+      <c r="D543" s="6"/>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="8">
+        <v>543</v>
+      </c>
+      <c r="B544" s="5"/>
+      <c r="C544" s="5"/>
+      <c r="D544" s="6"/>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="8">
+        <v>544</v>
+      </c>
+      <c r="B545" s="5"/>
+      <c r="C545" s="5"/>
+      <c r="D545" s="6"/>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="8">
+        <v>545</v>
+      </c>
+      <c r="B546" s="5"/>
+      <c r="C546" s="5"/>
+      <c r="D546" s="6"/>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="8">
+        <v>546</v>
+      </c>
+      <c r="B547" s="5"/>
+      <c r="C547" s="5"/>
+      <c r="D547" s="6"/>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="8">
+        <v>547</v>
+      </c>
+      <c r="B548" s="5"/>
+      <c r="C548" s="5"/>
+      <c r="D548" s="6"/>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="8">
+        <v>548</v>
+      </c>
+      <c r="B549" s="5"/>
+      <c r="C549" s="5"/>
+      <c r="D549" s="6"/>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="8">
+        <v>549</v>
+      </c>
+      <c r="B550" s="5"/>
+      <c r="C550" s="5"/>
+      <c r="D550" s="6"/>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="8">
+        <v>550</v>
+      </c>
+      <c r="B551" s="5"/>
+      <c r="C551" s="5"/>
+      <c r="D551" s="6"/>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="8">
+        <v>551</v>
+      </c>
+      <c r="B552" s="5"/>
+      <c r="C552" s="5"/>
+      <c r="D552" s="6"/>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="8">
+        <v>552</v>
+      </c>
+      <c r="B553" s="5"/>
+      <c r="C553" s="5"/>
+      <c r="D553" s="6"/>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="8">
+        <v>553</v>
+      </c>
+      <c r="B554" s="5"/>
+      <c r="C554" s="5"/>
+      <c r="D554" s="6"/>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="8">
+        <v>554</v>
+      </c>
+      <c r="B555" s="5"/>
+      <c r="C555" s="5"/>
+      <c r="D555" s="6"/>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="8">
+        <v>555</v>
+      </c>
+      <c r="B556" s="5"/>
+      <c r="C556" s="5"/>
+      <c r="D556" s="6"/>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="8">
+        <v>556</v>
+      </c>
+      <c r="B557" s="5"/>
+      <c r="C557" s="5"/>
+      <c r="D557" s="6"/>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="8">
+        <v>557</v>
+      </c>
+      <c r="B558" s="5"/>
+      <c r="C558" s="5"/>
+      <c r="D558" s="6"/>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="8">
+        <v>558</v>
+      </c>
+      <c r="B559" s="5"/>
+      <c r="C559" s="5"/>
+      <c r="D559" s="6"/>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="8">
+        <v>559</v>
+      </c>
+      <c r="B560" s="5"/>
+      <c r="C560" s="5"/>
+      <c r="D560" s="6"/>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="8">
+        <v>560</v>
+      </c>
+      <c r="B561" s="5"/>
+      <c r="C561" s="5"/>
+      <c r="D561" s="6"/>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="8">
+        <v>561</v>
+      </c>
+      <c r="B562" s="5"/>
+      <c r="C562" s="5"/>
+      <c r="D562" s="6"/>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="8">
+        <v>562</v>
+      </c>
+      <c r="B563" s="5"/>
+      <c r="C563" s="5"/>
+      <c r="D563" s="6"/>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="8">
+        <v>563</v>
+      </c>
+      <c r="B564" s="5"/>
+      <c r="C564" s="5"/>
+      <c r="D564" s="6"/>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="8">
+        <v>564</v>
+      </c>
+      <c r="B565" s="5"/>
+      <c r="C565" s="5"/>
+      <c r="D565" s="6"/>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="8">
+        <v>565</v>
+      </c>
+      <c r="B566" s="5"/>
+      <c r="C566" s="5"/>
+      <c r="D566" s="6"/>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="8">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5"/>
+      <c r="C567" s="5"/>
+      <c r="D567" s="6"/>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="8">
+        <v>567</v>
+      </c>
+      <c r="B568" s="5"/>
+      <c r="C568" s="5"/>
+      <c r="D568" s="6"/>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="8">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5"/>
+      <c r="C569" s="5"/>
+      <c r="D569" s="6"/>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="8">
+        <v>569</v>
+      </c>
+      <c r="B570" s="5"/>
+      <c r="C570" s="5"/>
+      <c r="D570" s="6"/>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="8">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5"/>
+      <c r="C571" s="5"/>
+      <c r="D571" s="6"/>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="8">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5"/>
+      <c r="C572" s="5"/>
+      <c r="D572" s="6"/>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="8">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5"/>
+      <c r="C573" s="5"/>
+      <c r="D573" s="6"/>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="8">
+        <v>573</v>
+      </c>
+      <c r="B574" s="5"/>
+      <c r="C574" s="5"/>
+      <c r="D574" s="6"/>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="8">
+        <v>574</v>
+      </c>
+      <c r="B575" s="5"/>
+      <c r="C575" s="5"/>
+      <c r="D575" s="6"/>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="8">
+        <v>575</v>
+      </c>
+      <c r="B576" s="5"/>
+      <c r="C576" s="5"/>
+      <c r="D576" s="6"/>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="8">
+        <v>576</v>
+      </c>
+      <c r="B577" s="5"/>
+      <c r="C577" s="5"/>
+      <c r="D577" s="6"/>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="8">
+        <v>577</v>
+      </c>
+      <c r="B578" s="5"/>
+      <c r="C578" s="5"/>
+      <c r="D578" s="6"/>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="8">
+        <v>578</v>
+      </c>
+      <c r="B579" s="5"/>
+      <c r="C579" s="5"/>
+      <c r="D579" s="6"/>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="8">
+        <v>579</v>
+      </c>
+      <c r="B580" s="5"/>
+      <c r="C580" s="5"/>
+      <c r="D580" s="6"/>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="8">
+        <v>580</v>
+      </c>
+      <c r="B581" s="5"/>
+      <c r="C581" s="5"/>
+      <c r="D581" s="6"/>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="8">
+        <v>581</v>
+      </c>
+      <c r="B582" s="5"/>
+      <c r="C582" s="5"/>
+      <c r="D582" s="6"/>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="8">
+        <v>582</v>
+      </c>
+      <c r="B583" s="5"/>
+      <c r="C583" s="5"/>
+      <c r="D583" s="6"/>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="8">
+        <v>583</v>
+      </c>
+      <c r="B584" s="5"/>
+      <c r="C584" s="5"/>
+      <c r="D584" s="6"/>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="8">
+        <v>584</v>
+      </c>
+      <c r="B585" s="5"/>
+      <c r="C585" s="5"/>
+      <c r="D585" s="6"/>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="8">
+        <v>585</v>
+      </c>
+      <c r="B586" s="5"/>
+      <c r="C586" s="5"/>
+      <c r="D586" s="6"/>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="8">
+        <v>586</v>
+      </c>
+      <c r="B587" s="5"/>
+      <c r="C587" s="5"/>
+      <c r="D587" s="6"/>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="8">
+        <v>587</v>
+      </c>
+      <c r="B588" s="5"/>
+      <c r="C588" s="5"/>
+      <c r="D588" s="6"/>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" s="8">
+        <v>588</v>
+      </c>
+      <c r="B589" s="5"/>
+      <c r="C589" s="5"/>
+      <c r="D589" s="6"/>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" s="8">
+        <v>589</v>
+      </c>
+      <c r="B590" s="5"/>
+      <c r="C590" s="5"/>
+      <c r="D590" s="6"/>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" s="8">
+        <v>590</v>
+      </c>
+      <c r="B591" s="5"/>
+      <c r="C591" s="5"/>
+      <c r="D591" s="6"/>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" s="8">
+        <v>591</v>
+      </c>
+      <c r="B592" s="5"/>
+      <c r="C592" s="5"/>
+      <c r="D592" s="6"/>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" s="8">
+        <v>592</v>
+      </c>
+      <c r="B593" s="5"/>
+      <c r="C593" s="5"/>
+      <c r="D593" s="6"/>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594" s="8">
+        <v>593</v>
+      </c>
+      <c r="B594" s="5"/>
+      <c r="C594" s="5"/>
+      <c r="D594" s="6"/>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="8">
+        <v>594</v>
+      </c>
+      <c r="B595" s="5"/>
+      <c r="C595" s="5"/>
+      <c r="D595" s="6"/>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="8">
+        <v>595</v>
+      </c>
+      <c r="B596" s="5"/>
+      <c r="C596" s="5"/>
+      <c r="D596" s="6"/>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="8">
+        <v>596</v>
+      </c>
+      <c r="B597" s="5"/>
+      <c r="C597" s="5"/>
+      <c r="D597" s="6"/>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="8">
+        <v>597</v>
+      </c>
+      <c r="B598" s="5"/>
+      <c r="C598" s="5"/>
+      <c r="D598" s="6"/>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" s="8">
+        <v>598</v>
+      </c>
+      <c r="B599" s="5"/>
+      <c r="C599" s="5"/>
+      <c r="D599" s="6"/>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" s="8">
+        <v>599</v>
+      </c>
+      <c r="B600" s="5"/>
+      <c r="C600" s="5"/>
+      <c r="D600" s="6"/>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" s="8">
+        <v>600</v>
+      </c>
+      <c r="B601" s="5"/>
+      <c r="C601" s="5"/>
+      <c r="D601" s="6"/>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602" s="8">
+        <v>601</v>
+      </c>
+      <c r="B602" s="5"/>
+      <c r="C602" s="5"/>
+      <c r="D602" s="6"/>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" s="8">
+        <v>602</v>
+      </c>
+      <c r="B603" s="5"/>
+      <c r="C603" s="5"/>
+      <c r="D603" s="6"/>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" s="8">
+        <v>603</v>
+      </c>
+      <c r="B604" s="5"/>
+      <c r="C604" s="5"/>
+      <c r="D604" s="6"/>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" s="8">
+        <v>604</v>
+      </c>
+      <c r="B605" s="5"/>
+      <c r="C605" s="5"/>
+      <c r="D605" s="6"/>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606" s="8">
+        <v>605</v>
+      </c>
+      <c r="B606" s="5"/>
+      <c r="C606" s="5"/>
+      <c r="D606" s="6"/>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" s="8">
+        <v>606</v>
+      </c>
+      <c r="B607" s="5"/>
+      <c r="C607" s="5"/>
+      <c r="D607" s="6"/>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" s="8">
+        <v>607</v>
+      </c>
+      <c r="B608" s="5"/>
+      <c r="C608" s="5"/>
+      <c r="D608" s="6"/>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" s="8">
+        <v>608</v>
+      </c>
+      <c r="B609" s="5"/>
+      <c r="C609" s="5"/>
+      <c r="D609" s="6"/>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" s="8">
+        <v>609</v>
+      </c>
+      <c r="B610" s="5"/>
+      <c r="C610" s="5"/>
+      <c r="D610" s="6"/>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" s="8">
+        <v>610</v>
+      </c>
+      <c r="B611" s="5"/>
+      <c r="C611" s="5"/>
+      <c r="D611" s="6"/>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" s="8">
+        <v>611</v>
+      </c>
+      <c r="B612" s="5"/>
+      <c r="C612" s="5"/>
+      <c r="D612" s="6"/>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" s="8">
+        <v>612</v>
+      </c>
+      <c r="B613" s="5"/>
+      <c r="C613" s="5"/>
+      <c r="D613" s="6"/>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="A614" s="8">
+        <v>613</v>
+      </c>
+      <c r="B614" s="5"/>
+      <c r="C614" s="5"/>
+      <c r="D614" s="6"/>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" s="8">
+        <v>614</v>
+      </c>
+      <c r="B615" s="5"/>
+      <c r="C615" s="5"/>
+      <c r="D615" s="6"/>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" s="8">
+        <v>615</v>
+      </c>
+      <c r="B616" s="5"/>
+      <c r="C616" s="5"/>
+      <c r="D616" s="6"/>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" s="8">
+        <v>616</v>
+      </c>
+      <c r="B617" s="5"/>
+      <c r="C617" s="5"/>
+      <c r="D617" s="6"/>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" s="8">
+        <v>617</v>
+      </c>
+      <c r="B618" s="5"/>
+      <c r="C618" s="5"/>
+      <c r="D618" s="6"/>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" s="8">
+        <v>618</v>
+      </c>
+      <c r="B619" s="5"/>
+      <c r="C619" s="5"/>
+      <c r="D619" s="6"/>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" s="8">
+        <v>619</v>
+      </c>
+      <c r="B620" s="5"/>
+      <c r="C620" s="5"/>
+      <c r="D620" s="6"/>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="A621" s="8">
+        <v>620</v>
+      </c>
+      <c r="B621" s="5"/>
+      <c r="C621" s="5"/>
+      <c r="D621" s="6"/>
+    </row>
+    <row r="622" spans="1:4">
+      <c r="A622" s="8">
+        <v>621</v>
+      </c>
+      <c r="B622" s="5"/>
+      <c r="C622" s="5"/>
+      <c r="D622" s="6"/>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" s="8">
+        <v>622</v>
+      </c>
+      <c r="B623" s="5"/>
+      <c r="C623" s="5"/>
+      <c r="D623" s="6"/>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" s="8">
+        <v>623</v>
+      </c>
+      <c r="B624" s="5"/>
+      <c r="C624" s="5"/>
+      <c r="D624" s="6"/>
+    </row>
+    <row r="625" spans="1:4">
+      <c r="A625" s="8">
+        <v>624</v>
+      </c>
+      <c r="B625" s="5"/>
+      <c r="C625" s="5"/>
+      <c r="D625" s="6"/>
+    </row>
+    <row r="626" spans="1:4">
+      <c r="A626" s="8">
+        <v>625</v>
+      </c>
+      <c r="B626" s="5"/>
+      <c r="C626" s="5"/>
+      <c r="D626" s="6"/>
+    </row>
+    <row r="627" spans="1:4">
+      <c r="A627" s="8">
+        <v>626</v>
+      </c>
+      <c r="B627" s="5"/>
+      <c r="C627" s="5"/>
+      <c r="D627" s="6"/>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" s="8">
+        <v>627</v>
+      </c>
+      <c r="B628" s="5"/>
+      <c r="C628" s="5"/>
+      <c r="D628" s="6"/>
+    </row>
+    <row r="629" spans="1:4">
+      <c r="A629" s="8">
+        <v>628</v>
+      </c>
+      <c r="B629" s="5"/>
+      <c r="C629" s="5"/>
+      <c r="D629" s="6"/>
+    </row>
+    <row r="630" spans="1:4">
+      <c r="A630" s="8">
+        <v>629</v>
+      </c>
+      <c r="B630" s="5"/>
+      <c r="C630" s="5"/>
+      <c r="D630" s="6"/>
+    </row>
+    <row r="631" spans="1:4">
+      <c r="A631" s="8">
+        <v>630</v>
+      </c>
+      <c r="B631" s="5"/>
+      <c r="C631" s="5"/>
+      <c r="D631" s="6"/>
+    </row>
+    <row r="632" spans="1:4">
+      <c r="A632" s="8">
+        <v>631</v>
+      </c>
+      <c r="B632" s="5"/>
+      <c r="C632" s="5"/>
+      <c r="D632" s="6"/>
+    </row>
+    <row r="633" spans="1:4">
+      <c r="A633" s="8">
+        <v>632</v>
+      </c>
+      <c r="B633" s="5"/>
+      <c r="C633" s="5"/>
+      <c r="D633" s="6"/>
+    </row>
+    <row r="634" spans="1:4">
+      <c r="A634" s="8">
+        <v>633</v>
+      </c>
+      <c r="B634" s="5"/>
+      <c r="C634" s="5"/>
+      <c r="D634" s="6"/>
+    </row>
+    <row r="635" spans="1:4">
+      <c r="A635" s="8">
+        <v>634</v>
+      </c>
+      <c r="B635" s="5"/>
+      <c r="C635" s="5"/>
+      <c r="D635" s="6"/>
+    </row>
+    <row r="636" spans="1:4">
+      <c r="A636" s="8">
+        <v>635</v>
+      </c>
+      <c r="B636" s="5"/>
+      <c r="C636" s="5"/>
+      <c r="D636" s="6"/>
+    </row>
+    <row r="637" spans="1:4">
+      <c r="A637" s="8">
+        <v>636</v>
+      </c>
+      <c r="B637" s="5"/>
+      <c r="C637" s="5"/>
+      <c r="D637" s="6"/>
+    </row>
+    <row r="638" spans="1:4">
+      <c r="A638" s="8">
+        <v>637</v>
+      </c>
+      <c r="B638" s="5"/>
+      <c r="C638" s="5"/>
+      <c r="D638" s="6"/>
+    </row>
+    <row r="639" spans="1:4">
+      <c r="A639" s="8">
+        <v>638</v>
+      </c>
+      <c r="B639" s="5"/>
+      <c r="C639" s="5"/>
+      <c r="D639" s="6"/>
+    </row>
+    <row r="640" spans="1:4">
+      <c r="A640" s="8">
+        <v>639</v>
+      </c>
+      <c r="B640" s="5"/>
+      <c r="C640" s="5"/>
+      <c r="D640" s="6"/>
+    </row>
+    <row r="641" spans="1:4">
+      <c r="A641" s="8">
+        <v>640</v>
+      </c>
+      <c r="B641" s="5"/>
+      <c r="C641" s="5"/>
+      <c r="D641" s="6"/>
+    </row>
+    <row r="642" spans="1:4">
+      <c r="A642" s="8">
+        <v>641</v>
+      </c>
+      <c r="B642" s="5"/>
+      <c r="C642" s="5"/>
+      <c r="D642" s="6"/>
+    </row>
+    <row r="643" spans="1:4">
+      <c r="A643" s="8">
+        <v>642</v>
+      </c>
+      <c r="B643" s="5"/>
+      <c r="C643" s="5"/>
+      <c r="D643" s="6"/>
+    </row>
+    <row r="644" spans="1:4">
+      <c r="A644" s="8">
+        <v>643</v>
+      </c>
+      <c r="B644" s="5"/>
+      <c r="C644" s="5"/>
+      <c r="D644" s="6"/>
+    </row>
+    <row r="645" spans="1:4">
+      <c r="A645" s="8">
+        <v>644</v>
+      </c>
+      <c r="B645" s="5"/>
+      <c r="C645" s="5"/>
+      <c r="D645" s="6"/>
+    </row>
+    <row r="646" spans="1:4">
+      <c r="A646" s="8">
+        <v>645</v>
+      </c>
+      <c r="B646" s="5"/>
+      <c r="C646" s="5"/>
+      <c r="D646" s="6"/>
+    </row>
+    <row r="647" spans="1:4">
+      <c r="A647" s="8">
+        <v>646</v>
+      </c>
+      <c r="B647" s="5"/>
+      <c r="C647" s="5"/>
+      <c r="D647" s="6"/>
+    </row>
+    <row r="648" spans="1:4">
+      <c r="A648" s="8">
+        <v>647</v>
+      </c>
+      <c r="B648" s="5"/>
+      <c r="C648" s="5"/>
+      <c r="D648" s="6"/>
+    </row>
+    <row r="649" spans="1:4">
+      <c r="A649" s="8">
+        <v>648</v>
+      </c>
+      <c r="B649" s="5"/>
+      <c r="C649" s="5"/>
+      <c r="D649" s="6"/>
+    </row>
+    <row r="650" spans="1:4">
+      <c r="A650" s="8">
+        <v>649</v>
+      </c>
+      <c r="B650" s="5"/>
+      <c r="C650" s="5"/>
+      <c r="D650" s="6"/>
+    </row>
+    <row r="651" spans="1:4">
+      <c r="A651" s="8">
+        <v>650</v>
+      </c>
+      <c r="B651" s="5"/>
+      <c r="C651" s="5"/>
+      <c r="D651" s="6"/>
+    </row>
+    <row r="652" spans="1:4">
+      <c r="A652" s="8">
+        <v>651</v>
+      </c>
+      <c r="B652" s="5"/>
+      <c r="C652" s="5"/>
+      <c r="D652" s="6"/>
+    </row>
+    <row r="653" spans="1:4">
+      <c r="A653" s="8">
+        <v>652</v>
+      </c>
+      <c r="B653" s="5"/>
+      <c r="C653" s="5"/>
+      <c r="D653" s="6"/>
+    </row>
+    <row r="654" spans="1:4">
+      <c r="A654" s="8">
+        <v>653</v>
+      </c>
+      <c r="B654" s="5"/>
+      <c r="C654" s="5"/>
+      <c r="D654" s="6"/>
+    </row>
+    <row r="655" spans="1:4">
+      <c r="A655" s="8">
+        <v>654</v>
+      </c>
+      <c r="B655" s="5"/>
+      <c r="C655" s="5"/>
+      <c r="D655" s="6"/>
+    </row>
+    <row r="656" spans="1:4">
+      <c r="A656" s="8">
+        <v>655</v>
+      </c>
+      <c r="B656" s="5"/>
+      <c r="C656" s="5"/>
+      <c r="D656" s="6"/>
+    </row>
+    <row r="657" spans="1:4">
+      <c r="A657" s="8">
+        <v>656</v>
+      </c>
+      <c r="B657" s="5"/>
+      <c r="C657" s="5"/>
+      <c r="D657" s="6"/>
+    </row>
+    <row r="658" spans="1:4">
+      <c r="A658" s="8">
+        <v>657</v>
+      </c>
+      <c r="B658" s="5"/>
+      <c r="C658" s="5"/>
+      <c r="D658" s="6"/>
+    </row>
+    <row r="659" spans="1:4">
+      <c r="A659" s="8">
+        <v>658</v>
+      </c>
+      <c r="B659" s="5"/>
+      <c r="C659" s="5"/>
+      <c r="D659" s="6"/>
+    </row>
+    <row r="660" spans="1:4">
+      <c r="A660" s="8">
+        <v>659</v>
+      </c>
+      <c r="B660" s="5"/>
+      <c r="C660" s="5"/>
+      <c r="D660" s="6"/>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" s="8">
+        <v>660</v>
+      </c>
+      <c r="B661" s="5"/>
+      <c r="C661" s="5"/>
+      <c r="D661" s="6"/>
+    </row>
+    <row r="662" spans="1:4">
+      <c r="A662" s="8">
+        <v>661</v>
+      </c>
+      <c r="B662" s="5"/>
+      <c r="C662" s="5"/>
+      <c r="D662" s="6"/>
+    </row>
+    <row r="663" spans="1:4">
+      <c r="A663" s="8">
+        <v>662</v>
+      </c>
+      <c r="B663" s="5"/>
+      <c r="C663" s="5"/>
+      <c r="D663" s="6"/>
+    </row>
+    <row r="664" spans="1:4">
+      <c r="A664" s="8">
+        <v>663</v>
+      </c>
+      <c r="B664" s="5"/>
+      <c r="C664" s="5"/>
+      <c r="D664" s="6"/>
+    </row>
+    <row r="665" spans="1:4">
+      <c r="A665" s="8">
+        <v>664</v>
+      </c>
+      <c r="B665" s="5"/>
+      <c r="C665" s="5"/>
+      <c r="D665" s="6"/>
+    </row>
+    <row r="666" spans="1:4">
+      <c r="A666" s="8">
+        <v>665</v>
+      </c>
+      <c r="B666" s="5"/>
+      <c r="C666" s="5"/>
+      <c r="D666" s="6"/>
+    </row>
+    <row r="667" spans="1:4">
+      <c r="A667" s="8">
+        <v>666</v>
+      </c>
+      <c r="B667" s="5"/>
+      <c r="C667" s="5"/>
+      <c r="D667" s="6"/>
+    </row>
+    <row r="668" spans="1:4">
+      <c r="A668" s="8">
+        <v>667</v>
+      </c>
+      <c r="B668" s="5"/>
+      <c r="C668" s="5"/>
+      <c r="D668" s="6"/>
+    </row>
+    <row r="669" spans="1:4">
+      <c r="A669" s="8">
+        <v>668</v>
+      </c>
+      <c r="B669" s="5"/>
+      <c r="C669" s="5"/>
+      <c r="D669" s="6"/>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" s="8">
+        <v>669</v>
+      </c>
+      <c r="B670" s="5"/>
+      <c r="C670" s="5"/>
+      <c r="D670" s="6"/>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" s="8">
+        <v>670</v>
+      </c>
+      <c r="B671" s="5"/>
+      <c r="C671" s="5"/>
+      <c r="D671" s="6"/>
+    </row>
+    <row r="672" spans="1:4">
+      <c r="A672" s="8">
+        <v>671</v>
+      </c>
+      <c r="B672" s="5"/>
+      <c r="C672" s="5"/>
+      <c r="D672" s="6"/>
+    </row>
+    <row r="673" spans="1:4">
+      <c r="A673" s="8">
+        <v>672</v>
+      </c>
+      <c r="B673" s="5"/>
+      <c r="C673" s="5"/>
+      <c r="D673" s="6"/>
+    </row>
+    <row r="674" spans="1:4">
+      <c r="A674" s="8">
+        <v>673</v>
+      </c>
+      <c r="B674" s="5"/>
+      <c r="C674" s="5"/>
+      <c r="D674" s="6"/>
+    </row>
+    <row r="675" spans="1:4">
+      <c r="A675" s="8">
+        <v>674</v>
+      </c>
+      <c r="B675" s="5"/>
+      <c r="C675" s="5"/>
+      <c r="D675" s="6"/>
+    </row>
+    <row r="676" spans="1:4">
+      <c r="A676" s="8">
+        <v>675</v>
+      </c>
+      <c r="B676" s="5"/>
+      <c r="C676" s="5"/>
+      <c r="D676" s="6"/>
+    </row>
+    <row r="677" spans="1:4">
+      <c r="A677" s="8">
+        <v>676</v>
+      </c>
+      <c r="B677" s="5"/>
+      <c r="C677" s="5"/>
+      <c r="D677" s="6"/>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" s="8">
+        <v>677</v>
+      </c>
+      <c r="B678" s="5"/>
+      <c r="C678" s="5"/>
+      <c r="D678" s="6"/>
+    </row>
+    <row r="679" spans="1:4">
+      <c r="A679" s="8">
+        <v>678</v>
+      </c>
+      <c r="B679" s="5"/>
+      <c r="C679" s="5"/>
+      <c r="D679" s="6"/>
+    </row>
+    <row r="680" spans="1:4">
+      <c r="A680" s="8">
+        <v>679</v>
+      </c>
+      <c r="B680" s="5"/>
+      <c r="C680" s="5"/>
+      <c r="D680" s="6"/>
+    </row>
+    <row r="681" spans="1:4">
+      <c r="A681" s="8">
+        <v>680</v>
+      </c>
+      <c r="B681" s="5"/>
+      <c r="C681" s="5"/>
+      <c r="D681" s="6"/>
+    </row>
+    <row r="682" spans="1:4">
+      <c r="A682" s="8">
+        <v>681</v>
+      </c>
+      <c r="B682" s="5"/>
+      <c r="C682" s="5"/>
+      <c r="D682" s="6"/>
+    </row>
+    <row r="683" spans="1:4">
+      <c r="A683" s="8">
+        <v>682</v>
+      </c>
+      <c r="B683" s="5"/>
+      <c r="C683" s="5"/>
+      <c r="D683" s="6"/>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="A684" s="8">
+        <v>683</v>
+      </c>
+      <c r="B684" s="5"/>
+      <c r="C684" s="5"/>
+      <c r="D684" s="6"/>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="A685" s="8">
+        <v>684</v>
+      </c>
+      <c r="B685" s="5"/>
+      <c r="C685" s="5"/>
+      <c r="D685" s="6"/>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="A686" s="8">
+        <v>685</v>
+      </c>
+      <c r="B686" s="5"/>
+      <c r="C686" s="5"/>
+      <c r="D686" s="6"/>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="A687" s="8">
+        <v>686</v>
+      </c>
+      <c r="B687" s="5"/>
+      <c r="C687" s="5"/>
+      <c r="D687" s="6"/>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="A688" s="8">
+        <v>687</v>
+      </c>
+      <c r="B688" s="5"/>
+      <c r="C688" s="5"/>
+      <c r="D688" s="6"/>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" s="8">
+        <v>688</v>
+      </c>
+      <c r="B689" s="5"/>
+      <c r="C689" s="5"/>
+      <c r="D689" s="6"/>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" s="8">
+        <v>689</v>
+      </c>
+      <c r="B690" s="5"/>
+      <c r="C690" s="5"/>
+      <c r="D690" s="6"/>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" s="8">
+        <v>690</v>
+      </c>
+      <c r="B691" s="5"/>
+      <c r="C691" s="5"/>
+      <c r="D691" s="6"/>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" s="8">
+        <v>691</v>
+      </c>
+      <c r="B692" s="5"/>
+      <c r="C692" s="5"/>
+      <c r="D692" s="6"/>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" s="8">
+        <v>692</v>
+      </c>
+      <c r="B693" s="5"/>
+      <c r="C693" s="5"/>
+      <c r="D693" s="6"/>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" s="8">
+        <v>693</v>
+      </c>
+      <c r="B694" s="5"/>
+      <c r="C694" s="5"/>
+      <c r="D694" s="6"/>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" s="8">
+        <v>694</v>
+      </c>
+      <c r="B695" s="5"/>
+      <c r="C695" s="5"/>
+      <c r="D695" s="6"/>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" s="8">
+        <v>695</v>
+      </c>
+      <c r="B696" s="5"/>
+      <c r="C696" s="5"/>
+      <c r="D696" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/academic-reading-notebook/new-words.xlsx
+++ b/academic-reading-notebook/new-words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiyang/myData/python-project/notebooks-641/academic-reading-notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2768DD-863B-3440-91A8-313823B5B271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E53B5C-FA3E-534F-8FDD-B3DC3DE994EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{C07A63B5-5344-AF4A-AFD6-2139CC657E22}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="435">
   <si>
     <t>[rɪˈtriːvl]</t>
   </si>
@@ -1751,6 +1751,57 @@
   </si>
   <si>
     <t>临近地区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'ɪntɪgr(ə)l/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrinsic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本的，内在的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ɪn'trɪnsɪk/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微妙的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/'sʌt(ə)l/</t>
+  </si>
+  <si>
+    <t>deﬁciency</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺乏，减少</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diˈfiʃənsi/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad hoc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时的，专门的，特别的</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2227,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B4733E-376B-124B-AFDB-49936A421CEF}">
   <dimension ref="A1:F696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4475,41 +4526,69 @@
       <c r="A174" s="8">
         <v>173</v>
       </c>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="6"/>
+      <c r="B174" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="8">
         <v>174</v>
       </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="6"/>
+      <c r="B175" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="8">
         <v>175</v>
       </c>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="6"/>
+      <c r="B176" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="8">
         <v>176</v>
       </c>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="6"/>
+      <c r="B177" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="8">
         <v>177</v>
       </c>
-      <c r="B178" s="5"/>
+      <c r="B178" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="C178" s="5"/>
-      <c r="D178" s="6"/>
+      <c r="D178" s="6" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="8">
